--- a/all_answers.xlsx
+++ b/all_answers.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lex/Documents/GitHub/Week 5/LexMidBootcampProj/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4896BF-1A61-3945-882D-850A17697210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="6980" windowWidth="42480" windowHeight="23660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1648,8 +1642,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1712,14 +1706,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1766,7 +1752,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1798,27 +1784,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1850,24 +1818,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2043,20 +1993,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F860"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B666" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C417" sqref="C417"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="205.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2073,7 +2017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2093,7 +2037,7 @@
         <v>14.82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2113,7 +2057,7 @@
         <v>25.41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2133,7 +2077,7 @@
         <v>37.33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2153,7 +2097,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2173,7 +2117,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2193,7 +2137,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2213,7 +2157,7 @@
         <v>45.01</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2233,7 +2177,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2253,7 +2197,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2270,10 +2214,10 @@
         <v>1054</v>
       </c>
       <c r="F11">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2293,7 +2237,7 @@
         <v>13.27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2313,7 +2257,7 @@
         <v>36.22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2333,7 +2277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2353,7 +2297,7 @@
         <v>9.82</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2373,7 +2317,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2393,7 +2337,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2413,7 +2357,7 @@
         <v>28.99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2433,7 +2377,7 @@
         <v>46.25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2453,7 +2397,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2473,7 +2417,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2493,7 +2437,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2513,7 +2457,7 @@
         <v>14.67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2533,7 +2477,7 @@
         <v>43.87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2553,7 +2497,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2570,10 +2514,10 @@
         <v>1018</v>
       </c>
       <c r="F26">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2593,7 +2537,7 @@
         <v>73.06</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2610,10 +2554,10 @@
         <v>18226</v>
       </c>
       <c r="F28">
-        <v>19.579999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19.58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2633,7 +2577,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2653,7 +2597,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2673,7 +2617,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2693,7 +2637,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2713,7 +2657,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2733,7 +2677,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2753,7 +2697,7 @@
         <v>24.71</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2773,7 +2717,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2793,7 +2737,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2813,7 +2757,7 @@
         <v>31.82</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2833,7 +2777,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2853,7 +2797,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2873,7 +2817,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2893,7 +2837,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2913,7 +2857,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2933,7 +2877,7 @@
         <v>34.65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2953,7 +2897,7 @@
         <v>40.26</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2973,7 +2917,7 @@
         <v>8.34</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2990,10 +2934,10 @@
         <v>35457</v>
       </c>
       <c r="F47">
-        <v>38.090000000000003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>38.09</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3013,7 +2957,7 @@
         <v>30.08</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3033,7 +2977,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3053,7 +2997,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3073,7 +3017,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3093,7 +3037,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3110,10 +3054,10 @@
         <v>60512</v>
       </c>
       <c r="F53">
-        <v>65.010000000000005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>65.01000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3133,7 +3077,7 @@
         <v>18.71</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3150,10 +3094,10 @@
         <v>2106</v>
       </c>
       <c r="F55">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3173,7 +3117,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3193,7 +3137,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3213,7 +3157,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3233,7 +3177,7 @@
         <v>54.93</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3253,7 +3197,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3273,7 +3217,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3293,7 +3237,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3313,7 +3257,7 @@
         <v>5.73</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3333,7 +3277,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3353,7 +3297,7 @@
         <v>54.09</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3373,7 +3317,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3393,7 +3337,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3413,7 +3357,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3433,7 +3377,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3453,7 +3397,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3473,7 +3417,7 @@
         <v>55.21</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3493,7 +3437,7 @@
         <v>25.27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3513,7 +3457,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3533,7 +3477,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3553,7 +3497,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3573,7 +3517,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3593,7 +3537,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3610,10 +3554,10 @@
         <v>14990</v>
       </c>
       <c r="F78">
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3633,7 +3577,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3653,7 +3597,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3673,7 +3617,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3693,7 +3637,7 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3713,7 +3657,7 @@
         <v>55.12</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3733,7 +3677,7 @@
         <v>15.07</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3753,7 +3697,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3773,7 +3717,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3793,7 +3737,7 @@
         <v>17.91</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3813,7 +3757,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3833,7 +3777,7 @@
         <v>52.47</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3853,7 +3797,7 @@
         <v>19.43</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3873,7 +3817,7 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3893,7 +3837,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3913,7 +3857,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3933,7 +3877,7 @@
         <v>5.44</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3950,10 +3894,10 @@
         <v>70984</v>
       </c>
       <c r="F95">
-        <v>76.260000000000005</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>76.26000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3973,7 +3917,7 @@
         <v>11.06</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3993,7 +3937,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4013,7 +3957,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4033,7 +3977,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4053,7 +3997,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4073,7 +4017,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4093,7 +4037,7 @@
         <v>36.85</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4113,7 +4057,7 @@
         <v>39.56</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4133,7 +4077,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4150,10 +4094,10 @@
         <v>3781</v>
       </c>
       <c r="F105">
-        <v>4.0599999999999996</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4173,7 +4117,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4193,7 +4137,7 @@
         <v>41.14</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4213,7 +4157,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4233,7 +4177,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4253,7 +4197,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4273,7 +4217,7 @@
         <v>8.81</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4293,7 +4237,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4313,7 +4257,7 @@
         <v>41.95</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4333,7 +4277,7 @@
         <v>17.09</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4353,7 +4297,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4373,7 +4317,7 @@
         <v>56.41</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4393,7 +4337,7 @@
         <v>25.19</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4413,7 +4357,7 @@
         <v>7.94</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4433,7 +4377,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4453,7 +4397,7 @@
         <v>8.85</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4473,7 +4417,7 @@
         <v>9.49</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4493,7 +4437,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4510,10 +4454,10 @@
         <v>35587</v>
       </c>
       <c r="F123">
-        <v>38.229999999999997</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>38.23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4533,7 +4477,7 @@
         <v>14.61</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4553,7 +4497,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4573,7 +4517,7 @@
         <v>31.12</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4593,7 +4537,7 @@
         <v>41.33</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4613,7 +4557,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4630,10 +4574,10 @@
         <v>2083</v>
       </c>
       <c r="F129">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4653,7 +4597,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4673,7 +4617,7 @@
         <v>56.94</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4693,7 +4637,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4710,10 +4654,10 @@
         <v>37416</v>
       </c>
       <c r="F133">
-        <v>40.200000000000003</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4733,7 +4677,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4753,7 +4697,7 @@
         <v>17.07</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4773,7 +4717,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4793,7 +4737,7 @@
         <v>22.72</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4810,10 +4754,10 @@
         <v>31962</v>
       </c>
       <c r="F138">
-        <v>34.340000000000003</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4833,7 +4777,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4853,7 +4797,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4873,7 +4817,7 @@
         <v>20.37</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4893,7 +4837,7 @@
         <v>27.59</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4913,7 +4857,7 @@
         <v>47.07</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4933,7 +4877,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4953,7 +4897,7 @@
         <v>41.76</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4973,7 +4917,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4993,7 +4937,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5013,7 +4957,7 @@
         <v>12.17</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5033,7 +4977,7 @@
         <v>11.74</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5053,7 +4997,7 @@
         <v>20.93</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5073,7 +5017,7 @@
         <v>31.18</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5093,7 +5037,7 @@
         <v>24.34</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5113,7 +5057,7 @@
         <v>20.12</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5133,7 +5077,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5153,7 +5097,7 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5173,7 +5117,7 @@
         <v>24.11</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5193,7 +5137,7 @@
         <v>20.29</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5213,7 +5157,7 @@
         <v>30.91</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5233,7 +5177,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5253,7 +5197,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5273,7 +5217,7 @@
         <v>25.97</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5293,7 +5237,7 @@
         <v>46.96</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5313,7 +5257,7 @@
         <v>55.18</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5333,7 +5277,7 @@
         <v>17.89</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5353,7 +5297,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5373,7 +5317,7 @@
         <v>16.23</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5393,7 +5337,7 @@
         <v>26.84</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5413,7 +5357,7 @@
         <v>31.13</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5433,7 +5377,7 @@
         <v>19.88</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5453,7 +5397,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5473,7 +5417,7 @@
         <v>55.93</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5493,7 +5437,7 @@
         <v>11.53</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5513,7 +5457,7 @@
         <v>9.26</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5533,7 +5477,7 @@
         <v>23.21</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5550,10 +5494,10 @@
         <v>61602</v>
       </c>
       <c r="F175">
-        <v>66.180000000000007</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+        <v>66.18000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5573,7 +5517,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5593,7 +5537,7 @@
         <v>7.29</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5613,7 +5557,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5633,7 +5577,7 @@
         <v>40.39</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5653,7 +5597,7 @@
         <v>23.87</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5673,7 +5617,7 @@
         <v>14.67</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5693,7 +5637,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5713,7 +5657,7 @@
         <v>70.69</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5733,7 +5677,7 @@
         <v>11.58</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5753,7 +5697,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5773,7 +5717,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5793,7 +5737,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5813,7 +5757,7 @@
         <v>67.84</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5833,7 +5777,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5853,7 +5797,7 @@
         <v>8.74</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5873,7 +5817,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5893,7 +5837,7 @@
         <v>7.21</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -5910,10 +5854,10 @@
         <v>76749</v>
       </c>
       <c r="F193">
-        <v>82.46</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+        <v>82.45999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -5933,7 +5877,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -5953,7 +5897,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -5973,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -5993,7 +5937,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6013,7 +5957,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6033,7 +5977,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6053,7 +5997,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6073,7 +6017,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6093,7 +6037,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6113,7 +6057,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6133,7 +6077,7 @@
         <v>12.56</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6153,7 +6097,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -6173,7 +6117,7 @@
         <v>23.31</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6193,7 +6137,7 @@
         <v>11.62</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -6210,10 +6154,10 @@
         <v>77394</v>
       </c>
       <c r="F208">
-        <v>83.15</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+        <v>83.15000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -6233,7 +6177,7 @@
         <v>11.93</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -6253,7 +6197,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -6273,7 +6217,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -6293,7 +6237,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -6313,7 +6257,7 @@
         <v>30.04</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6333,7 +6277,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6353,7 +6297,7 @@
         <v>42.71</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6373,7 +6317,7 @@
         <v>9.26</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6393,7 +6337,7 @@
         <v>60.2</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6413,7 +6357,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6433,7 +6377,7 @@
         <v>9.44</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6453,7 +6397,7 @@
         <v>19.21</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6473,7 +6417,7 @@
         <v>10.61</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6493,7 +6437,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6513,7 +6457,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6533,7 +6477,7 @@
         <v>72.94</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -6553,7 +6497,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -6573,7 +6517,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -6593,7 +6537,7 @@
         <v>6.47</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -6613,7 +6557,7 @@
         <v>22.52</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -6633,7 +6577,7 @@
         <v>11.27</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -6653,7 +6597,7 @@
         <v>88.63</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -6673,7 +6617,7 @@
         <v>26.23</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -6693,7 +6637,7 @@
         <v>71.45</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -6713,7 +6657,7 @@
         <v>83.87</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -6733,7 +6677,7 @@
         <v>13.81</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -6753,7 +6697,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -6773,7 +6717,7 @@
         <v>28.22</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -6793,7 +6737,7 @@
         <v>13.04</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -6810,10 +6754,10 @@
         <v>32996</v>
       </c>
       <c r="F238">
-        <v>35.450000000000003</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+        <v>35.45</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -6833,7 +6777,7 @@
         <v>20.37</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -6853,7 +6797,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -6873,7 +6817,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -6893,7 +6837,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -6910,10 +6854,10 @@
         <v>62167</v>
       </c>
       <c r="F243">
-        <v>66.790000000000006</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+        <v>66.79000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6933,7 +6877,7 @@
         <v>22.01</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6953,7 +6897,7 @@
         <v>48.29</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -6973,7 +6917,7 @@
         <v>29.48</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6993,7 +6937,7 @@
         <v>34.74</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -7013,7 +6957,7 @@
         <v>24.11</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -7033,7 +6977,7 @@
         <v>16.71</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -7053,7 +6997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -7073,7 +7017,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -7093,7 +7037,7 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -7113,7 +7057,7 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -7133,7 +7077,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -7153,7 +7097,7 @@
         <v>7.65</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -7173,7 +7117,7 @@
         <v>12.92</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -7193,7 +7137,7 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -7213,7 +7157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -7230,10 +7174,10 @@
         <v>66689</v>
       </c>
       <c r="F259">
-        <v>71.650000000000006</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+        <v>71.65000000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -7253,7 +7197,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -7273,7 +7217,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -7293,7 +7237,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -7313,7 +7257,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -7333,7 +7277,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -7353,7 +7297,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -7373,7 +7317,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -7393,7 +7337,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -7413,7 +7357,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -7433,7 +7377,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -7453,7 +7397,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -7470,10 +7414,10 @@
         <v>511</v>
       </c>
       <c r="F271">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -7493,7 +7437,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -7513,7 +7457,7 @@
         <v>84.13</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -7533,7 +7477,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -7553,7 +7497,7 @@
         <v>45.23</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -7573,7 +7517,7 @@
         <v>52.38</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -7593,7 +7537,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -7613,7 +7557,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -7633,7 +7577,7 @@
         <v>81.19</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -7653,7 +7597,7 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -7670,10 +7614,10 @@
         <v>17296</v>
       </c>
       <c r="F281">
-        <v>18.579999999999998</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18.58</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -7690,10 +7634,10 @@
         <v>71266</v>
       </c>
       <c r="F282">
-        <v>76.569999999999993</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+        <v>76.56999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -7713,7 +7657,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -7733,7 +7677,7 @@
         <v>12.07</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -7753,7 +7697,7 @@
         <v>82.87</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -7773,7 +7717,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -7793,7 +7737,7 @@
         <v>9.69</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7813,7 +7757,7 @@
         <v>86.83</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7833,7 +7777,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -7853,7 +7797,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -7873,7 +7817,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -7893,7 +7837,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -7913,7 +7857,7 @@
         <v>16.41</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -7933,7 +7877,7 @@
         <v>79.17</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -7953,7 +7897,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -7973,7 +7917,7 @@
         <v>17.53</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -7990,10 +7934,10 @@
         <v>73861</v>
       </c>
       <c r="F297">
-        <v>79.349999999999994</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+        <v>79.34999999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -8013,7 +7957,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -8033,7 +7977,7 @@
         <v>7.81</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -8050,10 +7994,10 @@
         <v>82697</v>
       </c>
       <c r="F300">
-        <v>88.85</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+        <v>88.84999999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -8073,7 +8017,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -8093,7 +8037,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -8113,7 +8057,7 @@
         <v>92.69</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -8133,7 +8077,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -8150,10 +8094,10 @@
         <v>9100</v>
       </c>
       <c r="F305">
-        <v>9.7799999999999994</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.779999999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -8173,7 +8117,7 @@
         <v>86.28</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -8193,7 +8137,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -8213,7 +8157,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -8230,10 +8174,10 @@
         <v>86188</v>
       </c>
       <c r="F309">
-        <v>92.6</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+        <v>92.59999999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -8253,7 +8197,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -8273,7 +8217,7 @@
         <v>9.91</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -8290,10 +8234,10 @@
         <v>80782</v>
       </c>
       <c r="F312">
-        <v>86.79</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86.79000000000001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -8313,7 +8257,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -8333,7 +8277,7 @@
         <v>14.27</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -8353,7 +8297,7 @@
         <v>35.72</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -8373,7 +8317,7 @@
         <v>29.02</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -8393,7 +8337,7 @@
         <v>57.71</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -8413,7 +8357,7 @@
         <v>34.19</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -8433,7 +8377,7 @@
         <v>44.09</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -8453,7 +8397,7 @@
         <v>23.61</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -8470,10 +8414,10 @@
         <v>18604</v>
       </c>
       <c r="F321">
-        <v>19.989999999999998</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -8493,7 +8437,7 @@
         <v>9.91</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -8513,7 +8457,7 @@
         <v>9.69</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -8533,7 +8477,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -8553,7 +8497,7 @@
         <v>19.61</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -8573,7 +8517,7 @@
         <v>23.15</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -8590,10 +8534,10 @@
         <v>31995</v>
       </c>
       <c r="F327">
-        <v>34.369999999999997</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.37</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -8613,7 +8557,7 @@
         <v>28.65</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -8630,10 +8574,10 @@
         <v>18313</v>
       </c>
       <c r="F329">
-        <v>19.670000000000002</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19.67</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -8653,7 +8597,7 @@
         <v>23.39</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -8673,7 +8617,7 @@
         <v>28.07</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -8693,7 +8637,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -8713,7 +8657,7 @@
         <v>7.57</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -8730,10 +8674,10 @@
         <v>31200</v>
       </c>
       <c r="F334">
-        <v>33.520000000000003</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33.52</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -8753,7 +8697,7 @@
         <v>57.53</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -8773,7 +8717,7 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -8793,7 +8737,7 @@
         <v>22.97</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -8810,10 +8754,10 @@
         <v>36617</v>
       </c>
       <c r="F338">
-        <v>39.340000000000003</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+        <v>39.34</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -8830,10 +8774,10 @@
         <v>30840</v>
       </c>
       <c r="F339">
-        <v>33.130000000000003</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33.13</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -8853,7 +8797,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -8873,7 +8817,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -8890,10 +8834,10 @@
         <v>36347</v>
       </c>
       <c r="F342">
-        <v>39.049999999999997</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+        <v>39.05</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -8913,7 +8857,7 @@
         <v>33.25</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -8933,7 +8877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -8953,7 +8897,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -8973,7 +8917,7 @@
         <v>14.66</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -8993,7 +8937,7 @@
         <v>75.86</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -9013,7 +8957,7 @@
         <v>72.45</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -9033,7 +8977,7 @@
         <v>16.07</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -9053,7 +8997,7 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -9073,7 +9017,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -9090,10 +9034,10 @@
         <v>8794</v>
       </c>
       <c r="F352">
-        <v>9.4499999999999993</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -9113,7 +9057,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -9133,7 +9077,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -9153,7 +9097,7 @@
         <v>63.62</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -9173,7 +9117,7 @@
         <v>32.57</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -9193,7 +9137,7 @@
         <v>30.19</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -9213,7 +9157,7 @@
         <v>27.19</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -9230,10 +9174,10 @@
         <v>9049</v>
       </c>
       <c r="F359">
-        <v>9.7200000000000006</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.720000000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -9253,7 +9197,7 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -9273,7 +9217,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -9293,7 +9237,7 @@
         <v>48.24</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -9313,7 +9257,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -9333,7 +9277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -9353,7 +9297,7 @@
         <v>30.72</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -9373,7 +9317,7 @@
         <v>29.73</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -9393,7 +9337,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -9413,7 +9357,7 @@
         <v>37.31</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -9433,7 +9377,7 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -9453,7 +9397,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -9473,7 +9417,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -9493,7 +9437,7 @@
         <v>27.77</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -9513,7 +9457,7 @@
         <v>42.02</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -9530,10 +9474,10 @@
         <v>15963</v>
       </c>
       <c r="F374">
-        <v>17.149999999999999</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17.15</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -9553,7 +9497,7 @@
         <v>40.72</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -9570,10 +9514,10 @@
         <v>76494</v>
       </c>
       <c r="F376">
-        <v>82.18</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+        <v>82.18000000000001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -9593,7 +9537,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -9613,7 +9557,7 @@
         <v>85.33</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -9633,7 +9577,7 @@
         <v>14.58</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -9653,7 +9597,7 @@
         <v>74.97</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -9673,7 +9617,7 @@
         <v>24.94</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -9693,7 +9637,7 @@
         <v>75.19</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -9713,7 +9657,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -9733,7 +9677,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -9753,7 +9697,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -9773,7 +9717,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -9793,7 +9737,7 @@
         <v>29.87</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -9813,7 +9757,7 @@
         <v>58.21</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -9833,7 +9777,7 @@
         <v>11.87</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -9853,7 +9797,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -9870,10 +9814,10 @@
         <v>31995</v>
       </c>
       <c r="F391">
-        <v>34.369999999999997</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.37</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -9893,7 +9837,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -9913,7 +9857,7 @@
         <v>67.84</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -9933,7 +9877,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -9953,7 +9897,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -9973,7 +9917,7 @@
         <v>52.01</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -9993,7 +9937,7 @@
         <v>25.66</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -10013,7 +9957,7 @@
         <v>20.32</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -10033,7 +9977,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -10053,7 +9997,7 @@
         <v>48.25</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -10073,7 +10017,7 @@
         <v>46.72</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -10090,10 +10034,10 @@
         <v>4557</v>
       </c>
       <c r="F402">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -10113,7 +10057,7 @@
         <v>16.21</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -10133,7 +10077,7 @@
         <v>29.86</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -10153,7 +10097,7 @@
         <v>45.04</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -10173,7 +10117,7 @@
         <v>45.66</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -10193,7 +10137,7 @@
         <v>68.34</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -10213,7 +10157,7 @@
         <v>41.13</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -10233,7 +10177,7 @@
         <v>67.81</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -10253,7 +10197,7 @@
         <v>50.71</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -10273,7 +10217,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -10293,7 +10237,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -10313,7 +10257,7 @@
         <v>24.41</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -10333,7 +10277,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -10353,7 +10297,7 @@
         <v>45.94</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -10373,7 +10317,7 @@
         <v>53.97</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -10390,10 +10334,10 @@
         <v>7947</v>
       </c>
       <c r="F417">
-        <v>8.5399999999999991</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.539999999999999</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -10413,7 +10357,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -10433,7 +10377,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -10453,7 +10397,7 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -10473,7 +10417,7 @@
         <v>9.32</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -10493,7 +10437,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -10510,10 +10454,10 @@
         <v>7811</v>
       </c>
       <c r="F423">
-        <v>8.39</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.390000000000001</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -10533,7 +10477,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -10550,10 +10494,10 @@
         <v>2157</v>
       </c>
       <c r="F425">
-        <v>2.3199999999999998</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -10573,7 +10517,7 @@
         <v>40.93</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -10593,7 +10537,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -10613,7 +10557,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -10633,7 +10577,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -10653,7 +10597,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -10670,10 +10614,10 @@
         <v>17131</v>
       </c>
       <c r="F431">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18.4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -10693,7 +10637,7 @@
         <v>76.19</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -10713,7 +10657,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -10733,7 +10677,7 @@
         <v>19.87</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -10753,7 +10697,7 @@
         <v>41.22</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -10770,10 +10714,10 @@
         <v>35414</v>
       </c>
       <c r="F436">
-        <v>38.049999999999997</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+        <v>38.05</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -10793,7 +10737,7 @@
         <v>28.51</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -10813,7 +10757,7 @@
         <v>17.71</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -10833,7 +10777,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -10850,10 +10794,10 @@
         <v>16695</v>
       </c>
       <c r="F440">
-        <v>17.940000000000001</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17.94</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -10873,7 +10817,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -10893,7 +10837,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -10913,7 +10857,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -10933,7 +10877,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -10953,7 +10897,7 @@
         <v>19.13</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -10973,7 +10917,7 @@
         <v>8.92</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -10993,7 +10937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -11013,7 +10957,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -11033,7 +10977,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -11053,7 +10997,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -11073,7 +11017,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -11093,7 +11037,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -11113,7 +11057,7 @@
         <v>81.09</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -11133,7 +11077,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -11153,7 +11097,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -11173,7 +11117,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -11193,7 +11137,7 @@
         <v>44.38</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -11213,7 +11157,7 @@
         <v>22.94</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -11233,7 +11177,7 @@
         <v>11.46</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -11253,7 +11197,7 @@
         <v>4.32</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -11273,7 +11217,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -11293,7 +11237,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -11313,7 +11257,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -11333,7 +11277,7 @@
         <v>30.26</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -11353,7 +11297,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -11373,7 +11317,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -11393,7 +11337,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -11410,10 +11354,10 @@
         <v>1909</v>
       </c>
       <c r="F468">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -11433,7 +11377,7 @@
         <v>7.07</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -11453,7 +11397,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -11473,7 +11417,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -11493,7 +11437,7 @@
         <v>30.38</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -11513,7 +11457,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -11533,7 +11477,7 @@
         <v>44.39</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -11553,7 +11497,7 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -11573,7 +11517,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -11593,7 +11537,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -11613,7 +11557,7 @@
         <v>10.01</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -11630,10 +11574,10 @@
         <v>9343</v>
       </c>
       <c r="F479">
-        <v>10.039999999999999</v>
-      </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.04</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -11653,7 +11597,7 @@
         <v>28.41</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -11673,7 +11617,7 @@
         <v>45.05</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -11693,7 +11637,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -11713,7 +11657,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -11733,7 +11677,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -11753,7 +11697,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -11773,7 +11717,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -11793,7 +11737,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -11813,7 +11757,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -11830,10 +11774,10 @@
         <v>75200</v>
       </c>
       <c r="F489">
-        <v>80.790000000000006</v>
-      </c>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+        <v>80.79000000000001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -11850,10 +11794,10 @@
         <v>4600</v>
       </c>
       <c r="F490">
-        <v>4.9400000000000004</v>
-      </c>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -11873,7 +11817,7 @@
         <v>8.94</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -11893,7 +11837,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -11913,7 +11857,7 @@
         <v>62.44</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -11933,7 +11877,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -11953,7 +11897,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -11973,7 +11917,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -11993,7 +11937,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -12013,7 +11957,7 @@
         <v>22.69</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -12033,7 +11977,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -12053,7 +11997,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -12073,7 +12017,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -12090,10 +12034,10 @@
         <v>3778</v>
       </c>
       <c r="F502">
-        <v>4.0599999999999996</v>
-      </c>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -12113,7 +12057,7 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -12130,10 +12074,10 @@
         <v>1055</v>
       </c>
       <c r="F504">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -12153,7 +12097,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -12173,7 +12117,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -12193,7 +12137,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -12213,7 +12157,7 @@
         <v>41.74</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -12233,7 +12177,7 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -12253,7 +12197,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -12273,7 +12217,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -12293,7 +12237,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -12313,7 +12257,7 @@
         <v>24.08</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -12333,7 +12277,7 @@
         <v>74.13</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -12353,7 +12297,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -12373,7 +12317,7 @@
         <v>22.34</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -12393,7 +12337,7 @@
         <v>35.89</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -12410,10 +12354,10 @@
         <v>34552</v>
       </c>
       <c r="F518">
-        <v>37.119999999999997</v>
-      </c>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+        <v>37.12</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -12433,7 +12377,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -12453,7 +12397,7 @@
         <v>20.48</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -12473,7 +12417,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -12493,7 +12437,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -12510,10 +12454,10 @@
         <v>7792</v>
       </c>
       <c r="F523">
-        <v>8.3699999999999992</v>
-      </c>
-    </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -12533,7 +12477,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -12553,7 +12497,7 @@
         <v>11.03</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -12573,7 +12517,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -12593,7 +12537,7 @@
         <v>17.96</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -12610,10 +12554,10 @@
         <v>8493</v>
       </c>
       <c r="F528">
-        <v>9.1199999999999992</v>
-      </c>
-    </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.119999999999999</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -12633,7 +12577,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -12653,7 +12597,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -12673,7 +12617,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -12693,7 +12637,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -12710,10 +12654,10 @@
         <v>2062</v>
       </c>
       <c r="F533">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -12733,7 +12677,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -12753,7 +12697,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -12773,7 +12717,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -12793,7 +12737,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -12813,7 +12757,7 @@
         <v>83.31</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -12833,7 +12777,7 @@
         <v>41.71</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -12853,7 +12797,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -12870,10 +12814,10 @@
         <v>4330</v>
       </c>
       <c r="F541">
-        <v>4.6500000000000004</v>
-      </c>
-    </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -12893,7 +12837,7 @@
         <v>37.72</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -12913,7 +12857,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -12933,7 +12877,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -12953,7 +12897,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -12973,7 +12917,7 @@
         <v>59.27</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -12990,10 +12934,10 @@
         <v>29933</v>
       </c>
       <c r="F547">
-        <v>32.159999999999997</v>
-      </c>
-    </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32.16</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -13013,7 +12957,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -13033,7 +12977,7 @@
         <v>44.52</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -13053,7 +12997,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -13073,7 +13017,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -13093,7 +13037,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -13113,7 +13057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -13133,7 +13077,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -13153,7 +13097,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -13173,7 +13117,7 @@
         <v>10.87</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -13193,7 +13137,7 @@
         <v>10.97</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -13213,7 +13157,7 @@
         <v>28.77</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -13230,10 +13174,10 @@
         <v>2064</v>
       </c>
       <c r="F559">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -13253,7 +13197,7 @@
         <v>44.19</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -13273,7 +13217,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -13290,10 +13234,10 @@
         <v>2369</v>
       </c>
       <c r="F562">
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -13313,7 +13257,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -13333,7 +13277,7 @@
         <v>85.61</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -13350,10 +13294,10 @@
         <v>4316</v>
       </c>
       <c r="F565">
-        <v>4.6399999999999997</v>
-      </c>
-    </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -13373,7 +13317,7 @@
         <v>7.93</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -13393,7 +13337,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -13413,7 +13357,7 @@
         <v>63.11</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -13433,7 +13377,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -13453,7 +13397,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -13473,7 +13417,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -13493,7 +13437,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -13513,7 +13457,7 @@
         <v>25.83</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -13533,7 +13477,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -13553,7 +13497,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -13570,10 +13514,10 @@
         <v>8113</v>
       </c>
       <c r="F576">
-        <v>8.7200000000000006</v>
-      </c>
-    </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.720000000000001</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -13593,7 +13537,7 @@
         <v>12.95</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -13613,7 +13557,7 @@
         <v>9.32</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -13633,7 +13577,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -13653,7 +13597,7 @@
         <v>7.04</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -13673,7 +13617,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -13693,7 +13637,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -13713,7 +13657,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -13733,7 +13677,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -13753,7 +13697,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -13770,10 +13714,10 @@
         <v>3935</v>
       </c>
       <c r="F586">
-        <v>4.2300000000000004</v>
-      </c>
-    </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -13793,7 +13737,7 @@
         <v>9.34</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -13813,7 +13757,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -13830,10 +13774,10 @@
         <v>3933</v>
       </c>
       <c r="F589">
-        <v>4.2300000000000004</v>
-      </c>
-    </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -13853,7 +13797,7 @@
         <v>94.44</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -13870,10 +13814,10 @@
         <v>535</v>
       </c>
       <c r="F591">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -13893,7 +13837,7 @@
         <v>21.42</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -13913,7 +13857,7 @@
         <v>58.57</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -13933,7 +13877,7 @@
         <v>34.76</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -13953,7 +13897,7 @@
         <v>27.61</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -13973,7 +13917,7 @@
         <v>10.84</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -13990,10 +13934,10 @@
         <v>2164</v>
       </c>
       <c r="F597">
-        <v>2.3199999999999998</v>
-      </c>
-    </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -14013,7 +13957,7 @@
         <v>15.09</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -14033,7 +13977,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -14053,7 +13997,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -14073,7 +14017,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -14093,7 +14037,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -14113,7 +14057,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -14133,7 +14077,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -14153,7 +14097,7 @@
         <v>12.95</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -14170,10 +14114,10 @@
         <v>7726</v>
       </c>
       <c r="F606">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -14190,10 +14134,10 @@
         <v>751</v>
       </c>
       <c r="F607">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -14213,7 +14157,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -14233,7 +14177,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -14253,7 +14197,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:6">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -14273,7 +14217,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:6">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -14293,7 +14237,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:6">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -14313,7 +14257,7 @@
         <v>91.42</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:6">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -14333,7 +14277,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:6">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -14353,7 +14297,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:6">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -14373,7 +14317,7 @@
         <v>29.64</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:6">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -14393,7 +14337,7 @@
         <v>21.22</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:6">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -14413,7 +14357,7 @@
         <v>14.69</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:6">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -14433,7 +14377,7 @@
         <v>6.63</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:6">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -14453,7 +14397,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:6">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -14473,7 +14417,7 @@
         <v>8.84</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:6">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -14493,7 +14437,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:6">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -14513,7 +14457,7 @@
         <v>63.31</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:6">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -14533,7 +14477,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -14553,7 +14497,7 @@
         <v>61.98</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -14573,7 +14517,7 @@
         <v>44.89</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -14593,7 +14537,7 @@
         <v>41.23</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -14613,7 +14557,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -14630,10 +14574,10 @@
         <v>15963</v>
       </c>
       <c r="F629">
-        <v>17.149999999999999</v>
-      </c>
-    </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17.15</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -14653,7 +14597,7 @@
         <v>14.58</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:6">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -14673,7 +14617,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:6">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -14690,10 +14634,10 @@
         <v>70731</v>
       </c>
       <c r="F632">
-        <v>75.989999999999995</v>
-      </c>
-    </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
+        <v>75.98999999999999</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -14710,10 +14654,10 @@
         <v>15833</v>
       </c>
       <c r="F633">
-        <v>17.010000000000002</v>
-      </c>
-    </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17.01</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -14733,7 +14677,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:6">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -14753,7 +14697,7 @@
         <v>35.14</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -14773,7 +14717,7 @@
         <v>61.39</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:6">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -14793,7 +14737,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:6">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -14813,7 +14757,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:6">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -14830,10 +14774,10 @@
         <v>4051</v>
       </c>
       <c r="F639">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -14853,7 +14797,7 @@
         <v>14.38</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:6">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -14873,7 +14817,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:6">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -14893,7 +14837,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:6">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -14913,7 +14857,7 @@
         <v>14.67</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:6">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -14933,7 +14877,7 @@
         <v>7.07</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:6">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -14953,7 +14897,7 @@
         <v>30.37</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:6">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -14970,10 +14914,10 @@
         <v>2141</v>
       </c>
       <c r="F646">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -14993,7 +14937,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:6">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -15013,7 +14957,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:6">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -15033,7 +14977,7 @@
         <v>43.08</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:6">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -15053,7 +14997,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:6">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -15073,7 +15017,7 @@
         <v>67.63</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:6">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -15093,7 +15037,7 @@
         <v>8.49</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:6">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -15113,7 +15057,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:6">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -15133,7 +15077,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:6">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -15153,7 +15097,7 @@
         <v>66.52</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:6">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -15173,7 +15117,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:6">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -15193,7 +15137,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:6">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -15210,10 +15154,10 @@
         <v>1028</v>
       </c>
       <c r="F658">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -15233,7 +15177,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:6">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -15253,7 +15197,7 @@
         <v>23.09</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:6">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -15273,7 +15217,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:6">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -15293,7 +15237,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:6">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -15313,7 +15257,7 @@
         <v>14.24</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:6">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -15333,7 +15277,7 @@
         <v>10.92</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:6">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -15353,7 +15297,7 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:6">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -15373,7 +15317,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:6">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -15393,7 +15337,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:6">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -15413,7 +15357,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:6">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -15433,7 +15377,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:6">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -15453,7 +15397,7 @@
         <v>31.15</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:6">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -15473,7 +15417,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:6">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -15493,7 +15437,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:6">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -15513,7 +15457,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:6">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -15533,7 +15477,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:6">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -15553,7 +15497,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:6">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -15573,7 +15517,7 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:6">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -15593,7 +15537,7 @@
         <v>92.12</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:6">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -15613,7 +15557,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:6">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -15633,7 +15577,7 @@
         <v>23.04</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:6">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -15653,7 +15597,7 @@
         <v>49.93</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:6">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -15673,7 +15617,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:6">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -15693,7 +15637,7 @@
         <v>27.34</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:6">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -15713,7 +15657,7 @@
         <v>13.46</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:6">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -15733,7 +15677,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:6">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -15750,10 +15694,10 @@
         <v>17206</v>
       </c>
       <c r="F685">
-        <v>18.489999999999998</v>
-      </c>
-    </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18.49</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -15773,7 +15717,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:6">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -15790,10 +15734,10 @@
         <v>4131</v>
       </c>
       <c r="F687">
-        <v>4.4400000000000004</v>
-      </c>
-    </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -15813,7 +15757,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:6">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -15833,7 +15777,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:6">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -15853,7 +15797,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:6">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -15873,7 +15817,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:6">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -15893,7 +15837,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:6">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -15913,7 +15857,7 @@
         <v>8.06</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:6">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -15933,7 +15877,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:6">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -15953,7 +15897,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:6">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -15973,7 +15917,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:6">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -15993,7 +15937,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:6">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -16010,10 +15954,10 @@
         <v>1061</v>
       </c>
       <c r="F698">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -16033,7 +15977,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:6">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -16053,7 +15997,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:6">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -16073,7 +16017,7 @@
         <v>90.52</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:6">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -16093,7 +16037,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:6">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -16113,7 +16057,7 @@
         <v>63.37</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:6">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -16133,7 +16077,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:6">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -16153,7 +16097,7 @@
         <v>57.67</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:6">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -16173,7 +16117,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:6">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -16193,7 +16137,7 @@
         <v>39.68</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:6">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -16210,10 +16154,10 @@
         <v>32528</v>
       </c>
       <c r="F708">
-        <v>34.950000000000003</v>
-      </c>
-    </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.95</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -16233,7 +16177,7 @@
         <v>18.82</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:6">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -16253,7 +16197,7 @@
         <v>16.03</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:6">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -16273,7 +16217,7 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:6">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -16290,10 +16234,10 @@
         <v>70496</v>
       </c>
       <c r="F712">
-        <v>75.739999999999995</v>
-      </c>
-    </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.2">
+        <v>75.73999999999999</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -16313,7 +16257,7 @@
         <v>16.78</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:6">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -16333,7 +16277,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:6">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -16350,10 +16294,10 @@
         <v>30362</v>
       </c>
       <c r="F715">
-        <v>32.619999999999997</v>
-      </c>
-    </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32.62</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -16373,7 +16317,7 @@
         <v>63.26</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:6">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -16393,7 +16337,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:6">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -16413,7 +16357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:6">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -16433,7 +16377,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:6">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -16453,7 +16397,7 @@
         <v>12.31</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:6">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -16470,10 +16414,10 @@
         <v>19005</v>
       </c>
       <c r="F721">
-        <v>20.420000000000002</v>
-      </c>
-    </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20.42</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -16493,7 +16437,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:6">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -16513,7 +16457,7 @@
         <v>13.41</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:6">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -16533,7 +16477,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:6">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -16553,7 +16497,7 @@
         <v>29.13</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:6">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -16573,7 +16517,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:6">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -16593,7 +16537,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:6">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -16613,7 +16557,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:6">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -16630,10 +16574,10 @@
         <v>37120</v>
       </c>
       <c r="F729">
-        <v>39.880000000000003</v>
-      </c>
-    </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
+        <v>39.88</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -16653,7 +16597,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:6">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -16673,7 +16617,7 @@
         <v>68.87</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:6">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -16693,7 +16637,7 @@
         <v>7.78</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:6">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -16713,7 +16657,7 @@
         <v>20.62</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:6">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -16730,10 +16674,10 @@
         <v>2068</v>
       </c>
       <c r="F734">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -16753,7 +16697,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:6">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -16773,7 +16717,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:6">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -16793,7 +16737,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:6">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -16810,10 +16754,10 @@
         <v>1024</v>
       </c>
       <c r="F738">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -16833,7 +16777,7 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:6">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -16853,7 +16797,7 @@
         <v>25.11</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:6">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -16873,7 +16817,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:6">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -16893,7 +16837,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:6">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -16913,7 +16857,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:6">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -16933,7 +16877,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:6">
       <c r="A745" s="1">
         <v>743</v>
       </c>
@@ -16953,7 +16897,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:6">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -16973,7 +16917,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:6">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -16993,7 +16937,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:6">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -17013,7 +16957,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:6">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -17030,10 +16974,10 @@
         <v>1034</v>
       </c>
       <c r="F749">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -17050,10 +16994,10 @@
         <v>1068</v>
       </c>
       <c r="F750">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -17073,7 +17017,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:6">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -17093,7 +17037,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:6">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -17113,7 +17057,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:6">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -17133,7 +17077,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:6">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -17153,7 +17097,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:6">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -17173,7 +17117,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:6">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -17193,7 +17137,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:6">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -17213,7 +17157,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:6">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -17230,10 +17174,10 @@
         <v>521</v>
       </c>
       <c r="F759">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -17253,7 +17197,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:6">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -17273,7 +17217,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:6">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -17293,7 +17237,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:6">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -17313,7 +17257,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:6">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -17333,7 +17277,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:6">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -17353,7 +17297,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:6">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -17373,7 +17317,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:6">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -17393,7 +17337,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:6">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -17413,7 +17357,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:6">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -17433,7 +17377,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:6">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -17453,7 +17397,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:6">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -17473,7 +17417,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:6">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -17493,7 +17437,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:6">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -17510,10 +17454,10 @@
         <v>265</v>
       </c>
       <c r="F773">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -17533,7 +17477,7 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:6">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -17553,7 +17497,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:6">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -17570,10 +17514,10 @@
         <v>638</v>
       </c>
       <c r="F776">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -17593,7 +17537,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:6">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -17613,7 +17557,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:6">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -17633,7 +17577,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:6">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -17653,7 +17597,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:6">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -17673,7 +17617,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:6">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -17693,7 +17637,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:6">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -17713,7 +17657,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:6">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -17730,10 +17674,10 @@
         <v>1870</v>
       </c>
       <c r="F784">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6">
       <c r="A785" s="1">
         <v>783</v>
       </c>
@@ -17750,10 +17694,10 @@
         <v>2359</v>
       </c>
       <c r="F785">
-        <v>2.5299999999999998</v>
-      </c>
-    </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -17773,7 +17717,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:6">
       <c r="A787" s="1">
         <v>785</v>
       </c>
@@ -17793,7 +17737,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:6">
       <c r="A788" s="1">
         <v>786</v>
       </c>
@@ -17813,7 +17757,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:6">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -17833,7 +17777,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:6">
       <c r="A790" s="1">
         <v>788</v>
       </c>
@@ -17853,7 +17797,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:6">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -17873,7 +17817,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:6">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -17893,7 +17837,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:6">
       <c r="A793" s="1">
         <v>791</v>
       </c>
@@ -17910,10 +17854,10 @@
         <v>1024</v>
       </c>
       <c r="F793">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -17930,10 +17874,10 @@
         <v>129</v>
       </c>
       <c r="F794">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6">
       <c r="A795" s="1">
         <v>793</v>
       </c>
@@ -17953,7 +17897,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:6">
       <c r="A796" s="1">
         <v>794</v>
       </c>
@@ -17973,7 +17917,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:6">
       <c r="A797" s="1">
         <v>795</v>
       </c>
@@ -17990,10 +17934,10 @@
         <v>3777</v>
       </c>
       <c r="F797">
-        <v>4.0599999999999996</v>
-      </c>
-    </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6">
       <c r="A798" s="1">
         <v>796</v>
       </c>
@@ -18013,7 +17957,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:6">
       <c r="A799" s="1">
         <v>797</v>
       </c>
@@ -18033,7 +17977,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:6">
       <c r="A800" s="1">
         <v>798</v>
       </c>
@@ -18050,10 +17994,10 @@
         <v>134</v>
       </c>
       <c r="F800">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6">
       <c r="A801" s="1">
         <v>799</v>
       </c>
@@ -18073,7 +18017,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:6">
       <c r="A802" s="1">
         <v>800</v>
       </c>
@@ -18093,7 +18037,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:6">
       <c r="A803" s="1">
         <v>801</v>
       </c>
@@ -18110,10 +18054,10 @@
         <v>4278</v>
       </c>
       <c r="F803">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6">
       <c r="A804" s="1">
         <v>802</v>
       </c>
@@ -18133,7 +18077,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:6">
       <c r="A805" s="1">
         <v>803</v>
       </c>
@@ -18153,7 +18097,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:6">
       <c r="A806" s="1">
         <v>804</v>
       </c>
@@ -18170,10 +18114,10 @@
         <v>133</v>
       </c>
       <c r="F806">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6">
       <c r="A807" s="1">
         <v>805</v>
       </c>
@@ -18193,7 +18137,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:6">
       <c r="A808" s="1">
         <v>806</v>
       </c>
@@ -18213,7 +18157,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:6">
       <c r="A809" s="1">
         <v>807</v>
       </c>
@@ -18230,10 +18174,10 @@
         <v>3850</v>
       </c>
       <c r="F809">
-        <v>4.1399999999999997</v>
-      </c>
-    </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6">
       <c r="A810" s="1">
         <v>808</v>
       </c>
@@ -18253,7 +18197,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:6">
       <c r="A811" s="1">
         <v>809</v>
       </c>
@@ -18273,7 +18217,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:6">
       <c r="A812" s="1">
         <v>810</v>
       </c>
@@ -18293,7 +18237,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:6">
       <c r="A813" s="1">
         <v>811</v>
       </c>
@@ -18310,10 +18254,10 @@
         <v>133</v>
       </c>
       <c r="F813">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6">
       <c r="A814" s="1">
         <v>812</v>
       </c>
@@ -18333,7 +18277,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:6">
       <c r="A815" s="1">
         <v>813</v>
       </c>
@@ -18353,7 +18297,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:6">
       <c r="A816" s="1">
         <v>814</v>
       </c>
@@ -18373,7 +18317,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:6">
       <c r="A817" s="1">
         <v>815</v>
       </c>
@@ -18393,7 +18337,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:6">
       <c r="A818" s="1">
         <v>816</v>
       </c>
@@ -18413,7 +18357,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:6">
       <c r="A819" s="1">
         <v>817</v>
       </c>
@@ -18433,7 +18377,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:6">
       <c r="A820" s="1">
         <v>818</v>
       </c>
@@ -18453,7 +18397,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:6">
       <c r="A821" s="1">
         <v>819</v>
       </c>
@@ -18473,7 +18417,7 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:6">
       <c r="A822" s="1">
         <v>820</v>
       </c>
@@ -18490,10 +18434,10 @@
         <v>131</v>
       </c>
       <c r="F822">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6">
       <c r="A823" s="1">
         <v>821</v>
       </c>
@@ -18513,7 +18457,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:6">
       <c r="A824" s="1">
         <v>822</v>
       </c>
@@ -18533,7 +18477,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:6">
       <c r="A825" s="1">
         <v>823</v>
       </c>
@@ -18553,7 +18497,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:6">
       <c r="A826" s="1">
         <v>824</v>
       </c>
@@ -18573,7 +18517,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:6">
       <c r="A827" s="1">
         <v>825</v>
       </c>
@@ -18593,7 +18537,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:6">
       <c r="A828" s="1">
         <v>826</v>
       </c>
@@ -18613,7 +18557,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:6">
       <c r="A829" s="1">
         <v>827</v>
       </c>
@@ -18633,7 +18577,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:6">
       <c r="A830" s="1">
         <v>828</v>
       </c>
@@ -18653,7 +18597,7 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:6">
       <c r="A831" s="1">
         <v>829</v>
       </c>
@@ -18670,10 +18614,10 @@
         <v>273</v>
       </c>
       <c r="F831">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6">
       <c r="A832" s="1">
         <v>830</v>
       </c>
@@ -18693,7 +18637,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:6">
       <c r="A833" s="1">
         <v>831</v>
       </c>
@@ -18713,7 +18657,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:6">
       <c r="A834" s="1">
         <v>832</v>
       </c>
@@ -18733,7 +18677,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:6">
       <c r="A835" s="1">
         <v>833</v>
       </c>
@@ -18753,7 +18697,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:6">
       <c r="A836" s="1">
         <v>834</v>
       </c>
@@ -18773,7 +18717,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:6">
       <c r="A837" s="1">
         <v>835</v>
       </c>
@@ -18790,10 +18734,10 @@
         <v>2052</v>
       </c>
       <c r="F837">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6">
       <c r="A838" s="1">
         <v>836</v>
       </c>
@@ -18813,7 +18757,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:6">
       <c r="A839" s="1">
         <v>837</v>
       </c>
@@ -18830,10 +18774,10 @@
         <v>1867</v>
       </c>
       <c r="F839">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6">
       <c r="A840" s="1">
         <v>838</v>
       </c>
@@ -18853,7 +18797,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:6">
       <c r="A841" s="1">
         <v>839</v>
       </c>
@@ -18873,7 +18817,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:6">
       <c r="A842" s="1">
         <v>840</v>
       </c>
@@ -18893,7 +18837,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:6">
       <c r="A843" s="1">
         <v>841</v>
       </c>
@@ -18913,7 +18857,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:6">
       <c r="A844" s="1">
         <v>842</v>
       </c>
@@ -18933,7 +18877,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:6">
       <c r="A845" s="1">
         <v>843</v>
       </c>
@@ -18953,7 +18897,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:6">
       <c r="A846" s="1">
         <v>844</v>
       </c>
@@ -18973,7 +18917,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:6">
       <c r="A847" s="1">
         <v>845</v>
       </c>
@@ -18993,7 +18937,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:6">
       <c r="A848" s="1">
         <v>846</v>
       </c>
@@ -19013,7 +18957,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:6">
       <c r="A849" s="1">
         <v>847</v>
       </c>
@@ -19030,10 +18974,10 @@
         <v>4060</v>
       </c>
       <c r="F849">
-        <v>4.3600000000000003</v>
-      </c>
-    </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6">
       <c r="A850" s="1">
         <v>848</v>
       </c>
@@ -19053,7 +18997,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:6">
       <c r="A851" s="1">
         <v>849</v>
       </c>
@@ -19073,7 +19017,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:6">
       <c r="A852" s="1">
         <v>850</v>
       </c>
@@ -19093,7 +19037,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:6">
       <c r="A853" s="1">
         <v>851</v>
       </c>
@@ -19113,7 +19057,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:6">
       <c r="A854" s="1">
         <v>852</v>
       </c>
@@ -19133,7 +19077,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:6">
       <c r="A855" s="1">
         <v>853</v>
       </c>
@@ -19153,7 +19097,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:6">
       <c r="A856" s="1">
         <v>854</v>
       </c>
@@ -19170,10 +19114,10 @@
         <v>644</v>
       </c>
       <c r="F856">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6">
       <c r="A857" s="1">
         <v>855</v>
       </c>
@@ -19193,7 +19137,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:6">
       <c r="A858" s="1">
         <v>856</v>
       </c>
@@ -19213,7 +19157,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:6">
       <c r="A859" s="1">
         <v>857</v>
       </c>
@@ -19230,10 +19174,10 @@
         <v>4131</v>
       </c>
       <c r="F859">
-        <v>4.4400000000000004</v>
-      </c>
-    </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6">
       <c r="A860" s="1">
         <v>858</v>
       </c>
@@ -19250,7 +19194,7 @@
         <v>540</v>
       </c>
       <c r="F860">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
